--- a/MyStripts/modbus_apex_efb/点表定义.xlsx
+++ b/MyStripts/modbus_apex_efb/点表定义.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mql\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramDevelop\PycharmProjects\CrazyPythonNotes\MyStripts\modbus_apex_efb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB52E20-84D6-4703-86DE-E1588A2FF533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62BB513-300A-43AC-BDAC-28AD6C917A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="296">
   <si>
     <t>标准点</t>
   </si>
@@ -1294,12 +1294,243 @@
     <t>rec_read</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>status_fault</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1模块均流故障</t>
+  </si>
+  <si>
+    <t>2软件判断交流过流故障</t>
+  </si>
+  <si>
+    <t>3交流电网过压告警</t>
+  </si>
+  <si>
+    <t>4直流电压不平衡</t>
+  </si>
+  <si>
+    <t>5软件判断直流过流故障</t>
+  </si>
+  <si>
+    <t>6外部联调停机</t>
+  </si>
+  <si>
+    <t>8命令下发错误</t>
+  </si>
+  <si>
+    <t>9直流电压传感器故障</t>
+  </si>
+  <si>
+    <t>10直流充电故障</t>
+  </si>
+  <si>
+    <t>11相序错误故障</t>
+  </si>
+  <si>
+    <t>12交流侧过压信号</t>
+  </si>
+  <si>
+    <t>13交流侧欠压信号</t>
+  </si>
+  <si>
+    <t>14急停</t>
+  </si>
+  <si>
+    <t>15直流侧过压信号</t>
+  </si>
+  <si>
+    <t>16开机环境条件闭锁开机</t>
+  </si>
+  <si>
+    <t>17交流电流传感器故障</t>
+  </si>
+  <si>
+    <t>18带电开门信号</t>
+  </si>
+  <si>
+    <t>19设备运行</t>
+  </si>
+  <si>
+    <t>20设备待机</t>
+  </si>
+  <si>
+    <t>21就地 转换为 远程</t>
+  </si>
+  <si>
+    <t>22设备开机</t>
+  </si>
+  <si>
+    <t>23设备停机</t>
+  </si>
+  <si>
+    <t>24水冷设备故障</t>
+  </si>
+  <si>
+    <t>25停机放电故障</t>
+  </si>
+  <si>
+    <t>26外部存储器故障</t>
+  </si>
+  <si>
+    <t>27直流隔离开关QS故障</t>
+  </si>
+  <si>
+    <t>28远程 转换为 就地</t>
+  </si>
+  <si>
+    <t>29联跳直流开关柜故障</t>
+  </si>
+  <si>
+    <t>30直流侧欠压故障</t>
+  </si>
+  <si>
+    <t>31交流侧频率异常告警</t>
+  </si>
+  <si>
+    <t>32硬件判断交流过流故障</t>
+  </si>
+  <si>
+    <t>33水冷加热器工作中</t>
+  </si>
+  <si>
+    <t>34IGBT温差保护故障</t>
+  </si>
+  <si>
+    <t>35环境温差保护故障</t>
+  </si>
+  <si>
+    <t>36联跳交流开关柜故障</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37风速异常告警       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38交流电压差值过大  </t>
+  </si>
+  <si>
+    <t>39 35KV三工位接地故障</t>
+  </si>
+  <si>
+    <t>40环境温度采集异常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41手动消障命令 </t>
+  </si>
+  <si>
+    <t>42直流侧过压告警</t>
+  </si>
+  <si>
+    <t>43直流侧欠压告警</t>
+  </si>
+  <si>
+    <t>44控制单元掉电</t>
+  </si>
+  <si>
+    <t>45控制单元上电</t>
+  </si>
+  <si>
+    <t>46充电接触器KM2故障</t>
+  </si>
+  <si>
+    <t>47主接触器KM1故障</t>
+  </si>
+  <si>
+    <t>48框架电压保护故障</t>
+  </si>
+  <si>
+    <t>49框架电流保护故障</t>
+  </si>
+  <si>
+    <t>50硬件判断直流过流故障</t>
+  </si>
+  <si>
+    <t>51主控参数已恢复出厂</t>
+  </si>
+  <si>
+    <t>52 C相IGBT过温故障</t>
+  </si>
+  <si>
+    <t>53 B相IGBT过温故障</t>
+  </si>
+  <si>
+    <t>54设备自检失败</t>
+  </si>
+  <si>
+    <t>55电网自检中......</t>
+  </si>
+  <si>
+    <t>56运行数据初始化自检中.</t>
+  </si>
+  <si>
+    <t>57设备状态自检中......</t>
+  </si>
+  <si>
+    <t>58自检完毕设备正常</t>
+  </si>
+  <si>
+    <t>59上电前柜门未关</t>
+  </si>
+  <si>
+    <t>60风机CPS控制器故障</t>
+  </si>
+  <si>
+    <t>61变压器过温故障</t>
+  </si>
+  <si>
+    <t>62防雷保护器故障</t>
+  </si>
+  <si>
+    <t>63直流电容放电故障</t>
+  </si>
+  <si>
+    <t>64环境温度过温故障</t>
+  </si>
+  <si>
+    <t>65低压交流断路器故障</t>
+  </si>
+  <si>
+    <t>66 A相IGBT过温故障</t>
+  </si>
+  <si>
+    <t>67直流电抗过温故障</t>
+  </si>
+  <si>
+    <t>68交流CT软件过流故障</t>
+  </si>
+  <si>
+    <t>69交流电抗过温故障</t>
+  </si>
+  <si>
+    <t>70熔断器故障</t>
+  </si>
+  <si>
+    <t>71主从光纤通信故障</t>
+  </si>
+  <si>
+    <t>72IGBT驱动故障</t>
+  </si>
+  <si>
+    <t>73CT硬件过流故障</t>
+  </si>
+  <si>
+    <t>74风机过温故障</t>
+  </si>
+  <si>
+    <t>故障代码定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7交流电网欠压告警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,6 +1663,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1799,7 +2047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1983,12 +2231,24 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2004,17 +2264,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2299,10 +2556,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y63"/>
+  <dimension ref="B1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2314,7 +2571,7 @@
     <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
     <col min="10" max="10" width="5" customWidth="1"/>
     <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
@@ -2404,6 +2661,9 @@
         <v>1</v>
       </c>
       <c r="H3" s="36"/>
+      <c r="I3" s="76" t="s">
+        <v>294</v>
+      </c>
       <c r="R3" s="58" t="s">
         <v>203</v>
       </c>
@@ -2427,8 +2687,8 @@
       </c>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="2:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+    <row r="4" spans="2:25" ht="39.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="63" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2447,10 +2707,13 @@
       <c r="H4" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="I4" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="69" t="s">
         <v>115</v>
       </c>
       <c r="M4" s="45">
@@ -2459,7 +2722,7 @@
       <c r="N4" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>162</v>
       </c>
       <c r="R4" s="58" t="s">
@@ -2486,7 +2749,7 @@
       <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="63" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2505,15 +2768,18 @@
       <c r="H5" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="70"/>
-      <c r="L5" s="66"/>
+      <c r="I5" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="45">
         <v>40001</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O5" s="69"/>
+      <c r="O5" s="73"/>
       <c r="R5" s="58" t="s">
         <v>205</v>
       </c>
@@ -2538,7 +2804,7 @@
       <c r="Y5" s="7"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2557,7 +2823,10 @@
       <c r="H6" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="I6" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>118</v>
       </c>
       <c r="L6" s="28" t="s">
@@ -2596,7 +2865,7 @@
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2615,7 +2884,10 @@
       <c r="H7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="I7" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="63" t="s">
         <v>121</v>
       </c>
       <c r="L7" s="28" t="s">
@@ -2654,7 +2926,7 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2673,7 +2945,10 @@
       <c r="H8" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="I8" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="63" t="s">
         <v>123</v>
       </c>
       <c r="L8" s="28" t="s">
@@ -2712,7 +2987,7 @@
       <c r="Y8" s="7"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="63" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2731,7 +3006,10 @@
       <c r="H9" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="K9" s="70" t="s">
+      <c r="I9" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="K9" s="63" t="s">
         <v>125</v>
       </c>
       <c r="L9" s="28" t="s">
@@ -2770,7 +3048,7 @@
       <c r="Y9" s="7"/>
     </row>
     <row r="10" spans="2:25" ht="108.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2789,7 +3067,10 @@
       <c r="H10" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="I10" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="63" t="s">
         <v>127</v>
       </c>
       <c r="L10" s="28" t="s">
@@ -2828,7 +3109,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2847,7 +3128,10 @@
       <c r="H11" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="I11" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="63" t="s">
         <v>129</v>
       </c>
       <c r="L11" s="28" t="s">
@@ -2886,7 +3170,7 @@
       <c r="Y11" s="7"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2905,7 +3189,10 @@
       <c r="H12" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="I12" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="63" t="s">
         <v>131</v>
       </c>
       <c r="L12" s="28" t="s">
@@ -2922,7 +3209,7 @@
       </c>
     </row>
     <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="63" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2939,14 +3226,17 @@
         <v>0.01</v>
       </c>
       <c r="H13" s="41"/>
-      <c r="K13" s="70"/>
+      <c r="I13" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="63"/>
       <c r="L13" s="29"/>
       <c r="M13" s="47"/>
       <c r="N13" s="5"/>
       <c r="O13" s="41"/>
     </row>
     <row r="14" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2963,6 +3253,9 @@
         <v>0.01</v>
       </c>
       <c r="H14" s="41"/>
+      <c r="I14" s="75" t="s">
+        <v>230</v>
+      </c>
       <c r="K14" s="54" t="s">
         <v>172</v>
       </c>
@@ -2978,7 +3271,7 @@
       <c r="O14" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="P14" s="71" t="s">
+      <c r="P14" s="66" t="s">
         <v>217</v>
       </c>
       <c r="R14" s="60" t="s">
@@ -2988,7 +3281,7 @@
       <c r="T14" s="60"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="63" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -3005,6 +3298,9 @@
         <v>0.01</v>
       </c>
       <c r="H15" s="41"/>
+      <c r="I15" s="75" t="s">
+        <v>231</v>
+      </c>
       <c r="K15" s="54" t="s">
         <v>173</v>
       </c>
@@ -3020,13 +3316,13 @@
       <c r="O15" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="P15" s="72"/>
+      <c r="P15" s="67"/>
       <c r="R15" s="60" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="63" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -3045,6 +3341,9 @@
       <c r="H16" s="41" t="s">
         <v>154</v>
       </c>
+      <c r="I16" s="75" t="s">
+        <v>232</v>
+      </c>
       <c r="K16" s="54" t="s">
         <v>174</v>
       </c>
@@ -3060,10 +3359,10 @@
       <c r="O16" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="P16" s="72"/>
+      <c r="P16" s="67"/>
     </row>
     <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3082,6 +3381,9 @@
       <c r="H17" s="41" t="s">
         <v>154</v>
       </c>
+      <c r="I17" s="75" t="s">
+        <v>233</v>
+      </c>
       <c r="K17" s="54" t="s">
         <v>175</v>
       </c>
@@ -3097,10 +3399,10 @@
       <c r="O17" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="P17" s="72"/>
+      <c r="P17" s="67"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="63" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3119,6 +3421,9 @@
       <c r="H18" s="41" t="s">
         <v>154</v>
       </c>
+      <c r="I18" s="75" t="s">
+        <v>234</v>
+      </c>
       <c r="K18" s="54" t="s">
         <v>219</v>
       </c>
@@ -3134,10 +3439,10 @@
       <c r="O18" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P18" s="72"/>
+      <c r="P18" s="67"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="63" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3156,7 +3461,10 @@
       <c r="H19" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="I19" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="64" t="s">
         <v>179</v>
       </c>
       <c r="L19" s="49" t="s">
@@ -3171,10 +3479,10 @@
       <c r="O19" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="P19" s="72"/>
+      <c r="P19" s="67"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="63" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3193,7 +3501,10 @@
       <c r="H20" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="I20" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" s="65"/>
       <c r="L20" s="51"/>
       <c r="M20" s="62">
         <v>40029</v>
@@ -3204,10 +3515,10 @@
       <c r="O20" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="P20" s="72"/>
+      <c r="P20" s="67"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="71" t="s">
         <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3224,7 +3535,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="41"/>
-      <c r="K21" s="63" t="s">
+      <c r="I21" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="K21" s="64" t="s">
         <v>180</v>
       </c>
       <c r="L21" s="49" t="s">
@@ -3239,10 +3553,10 @@
       <c r="O21" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="P21" s="72"/>
+      <c r="P21" s="67"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="67"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
@@ -3259,7 +3573,10 @@
       <c r="H22" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="64"/>
+      <c r="I22" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="65"/>
       <c r="L22" s="51"/>
       <c r="M22" s="50">
         <v>40031</v>
@@ -3270,10 +3587,10 @@
       <c r="O22" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="P22" s="73"/>
+      <c r="P22" s="68"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="63" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3292,11 +3609,14 @@
       <c r="H23" s="41" t="s">
         <v>149</v>
       </c>
+      <c r="I23" s="75" t="s">
+        <v>239</v>
+      </c>
       <c r="K23" s="53"/>
       <c r="M23" s="53"/>
     </row>
     <row r="24" spans="2:16" ht="27" x14ac:dyDescent="0.2">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3313,7 +3633,10 @@
       <c r="H24" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="I24" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" s="63" t="s">
         <v>133</v>
       </c>
       <c r="L24" s="28" t="s">
@@ -3331,7 +3654,7 @@
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="2:16" ht="27" x14ac:dyDescent="0.2">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="63" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3348,7 +3671,10 @@
       <c r="H25" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="I25" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" s="63" t="s">
         <v>135</v>
       </c>
       <c r="L25" s="28" t="s">
@@ -3366,7 +3692,7 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -3383,7 +3709,10 @@
       <c r="H26" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="I26" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="63" t="s">
         <v>137</v>
       </c>
       <c r="L26" s="28" t="s">
@@ -3401,7 +3730,7 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="2:16" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="63" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3418,7 +3747,10 @@
       <c r="H27" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="K27" s="70" t="s">
+      <c r="I27" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" s="63" t="s">
         <v>139</v>
       </c>
       <c r="L27" s="28" t="s">
@@ -3436,7 +3768,7 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="63" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3453,9 +3785,12 @@
       <c r="H28" s="41" t="s">
         <v>151</v>
       </c>
+      <c r="I28" s="75" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3472,9 +3807,12 @@
       <c r="H29" s="41" t="s">
         <v>151</v>
       </c>
+      <c r="I29" s="75" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="63" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3491,9 +3829,12 @@
       <c r="H30" s="41" t="s">
         <v>151</v>
       </c>
+      <c r="I30" s="75" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3510,9 +3851,12 @@
       <c r="H31" s="41" t="s">
         <v>151</v>
       </c>
+      <c r="I31" s="75" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3529,9 +3873,12 @@
       <c r="H32" s="41" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="67" t="s">
+      <c r="I32" s="75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="71" t="s">
         <v>158</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -3548,9 +3895,12 @@
         <v>1</v>
       </c>
       <c r="H33" s="33"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="67"/>
+      <c r="I33" s="75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="71"/>
       <c r="C34" s="36" t="s">
         <v>148</v>
       </c>
@@ -3567,15 +3917,21 @@
       <c r="H34" s="33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="75" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="70" t="s">
+      <c r="I35" s="75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="63" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -3587,15 +3943,21 @@
       <c r="E36" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="52"/>
       <c r="C37" s="9"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="70" t="s">
+      <c r="I37" s="75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="63" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -3607,9 +3969,12 @@
       <c r="E38" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="70" t="s">
+      <c r="I38" s="75" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="63" t="s">
         <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -3621,10 +3986,13 @@
       <c r="E39" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="70" t="s">
-        <v>65</v>
+      <c r="I39" s="75" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="74" t="s">
+        <v>220</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>66</v>
@@ -3635,9 +4003,12 @@
       <c r="E40" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="70" t="s">
+      <c r="I40" s="75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3649,9 +4020,12 @@
       <c r="E41" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="s">
+      <c r="I41" s="75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3663,9 +4037,12 @@
       <c r="E42" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="70" t="s">
+      <c r="I42" s="75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -3677,9 +4054,12 @@
       <c r="E43" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="70" t="s">
+      <c r="I43" s="75" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="63" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -3691,9 +4071,12 @@
       <c r="E44" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="70" t="s">
+      <c r="I44" s="75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="63" t="s">
         <v>80</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -3705,9 +4088,12 @@
       <c r="E45" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="70" t="s">
+      <c r="I45" s="75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -3719,9 +4105,12 @@
       <c r="E46" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="70" t="s">
+      <c r="I46" s="75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -3733,9 +4122,12 @@
       <c r="E47" s="16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="70" t="s">
+      <c r="I47" s="75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="63" t="s">
         <v>89</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -3747,9 +4139,12 @@
       <c r="E48" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="70" t="s">
+      <c r="I48" s="75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="63" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -3761,9 +4156,12 @@
       <c r="E49" s="16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="70" t="s">
+      <c r="I49" s="75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="63" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -3775,15 +4173,21 @@
       <c r="E50" s="18" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="70"/>
+      <c r="I50" s="75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="63"/>
       <c r="C51" s="19"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="70" t="s">
+      <c r="I51" s="75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="63" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="20" t="s">
@@ -3795,9 +4199,12 @@
       <c r="E52" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="70" t="s">
+      <c r="I52" s="75" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="63" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="21" t="s">
@@ -3809,9 +4216,12 @@
       <c r="E53" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="70" t="s">
+      <c r="I53" s="75" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="63" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -3823,9 +4233,12 @@
       <c r="E54" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="70" t="s">
+      <c r="I54" s="75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="63" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="21" t="s">
@@ -3837,9 +4250,12 @@
       <c r="E55" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="70" t="s">
+      <c r="I55" s="75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="63" t="s">
         <v>106</v>
       </c>
       <c r="C56" s="21" t="s">
@@ -3851,9 +4267,12 @@
       <c r="E56" s="13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="70" t="s">
+      <c r="I56" s="75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="63" t="s">
         <v>108</v>
       </c>
       <c r="C57" s="21" t="s">
@@ -3865,9 +4284,12 @@
       <c r="E57" s="13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="70" t="s">
+      <c r="I57" s="75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="63" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="22" t="s">
@@ -3879,11 +4301,17 @@
       <c r="E58" s="23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="53"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I59" s="75" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="54" t="s">
         <v>177</v>
       </c>
@@ -3897,9 +4325,12 @@
       <c r="F60" s="33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="63" t="s">
+      <c r="I60" s="75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="64" t="s">
         <v>178</v>
       </c>
       <c r="C61" s="31" t="s">
@@ -3914,9 +4345,12 @@
       <c r="F61" s="33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="64"/>
+      <c r="I61" s="75" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="65"/>
       <c r="C62" s="31"/>
       <c r="D62" s="32">
         <v>30074</v>
@@ -3927,8 +4361,11 @@
       <c r="F62" s="33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="I62" s="75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="55" t="s">
         <v>176</v>
       </c>
@@ -3943,6 +4380,79 @@
       </c>
       <c r="F63" s="35" t="s">
         <v>143</v>
+      </c>
+      <c r="I63" s="75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="75" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="75" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="75" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="75" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3958,6 +4468,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>